--- a/data/IN/outputs/house_democrats_committee_votes.xlsx
+++ b/data/IN/outputs/house_democrats_committee_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:AE31"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_democrats_committee_votes.xlsx
+++ b/data/IN/outputs/house_democrats_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1:AE31"/>
     </sheetView>
   </sheetViews>

--- a/data/IN/outputs/house_democrats_committee_votes.xlsx
+++ b/data/IN/outputs/house_democrats_committee_votes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -578,6 +578,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D2">
         <v>0.5</v>
       </c>
@@ -585,19 +588,22 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -611,6 +617,9 @@
       <c r="U2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="V2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="W2">
         <v>0</v>
       </c>
@@ -620,19 +629,34 @@
       <c r="Z2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -647,7 +671,10 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -663,6 +690,9 @@
       <c r="B4">
         <v>0.5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -678,8 +708,11 @@
       <c r="U4">
         <v>0.5</v>
       </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X4">
         <v>0.5</v>
@@ -696,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -704,12 +737,18 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
@@ -720,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -743,16 +782,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE6">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -760,25 +811,34 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -797,20 +857,29 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="M8">
+        <v>0.8125</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
       <c r="O8">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P8">
         <v>0.8</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8">
+        <v>0.6875</v>
+      </c>
       <c r="V8">
-        <v>0.83333333333333337</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -819,22 +888,28 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.83333333333333337</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="F9">
+        <v>0.6</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="U9">
         <v>1</v>
       </c>
@@ -848,15 +923,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AE9">
-        <v>0.8</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -877,10 +955,13 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA10">
         <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -915,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -930,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -939,7 +1020,10 @@
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -947,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -955,6 +1039,12 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -963,6 +1053,9 @@
       </c>
       <c r="O12">
         <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0.88888888888888884</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -977,11 +1070,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
       <c r="Z12">
         <v>1</v>
       </c>
@@ -989,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1000,32 +1096,80 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>0.8125</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
+      <c r="O13">
+        <v>0.75</v>
+      </c>
       <c r="Q13">
         <v>1</v>
       </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0.625</v>
+      </c>
+      <c r="V13">
+        <v>0.875</v>
+      </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB13">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="AC13">
+        <v>0.55555555555555558</v>
       </c>
       <c r="AD13">
         <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0.8</v>
+      </c>
       <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
       </c>
     </row>
@@ -1043,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1054,6 +1198,12 @@
       <c r="L15">
         <v>1</v>
       </c>
+      <c r="M15">
+        <v>0.75</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
       <c r="O15">
         <v>1</v>
       </c>
@@ -1061,19 +1211,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R15">
-        <v>0.5</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1088,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AC15">
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -1143,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1154,6 +1304,9 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="M17">
         <v>1</v>
       </c>
@@ -1162,6 +1315,9 @@
       </c>
       <c r="Z17">
         <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -1172,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1180,8 +1336,11 @@
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="P18">
         <v>0.66666666666666663</v>
@@ -1196,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="V18">
-        <v>0.75</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -1214,10 +1373,10 @@
         <v>0.5</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AC18">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD18">
         <v>0.66666666666666663</v>
@@ -1236,6 +1395,9 @@
       <c r="L19">
         <v>1</v>
       </c>
+      <c r="M19">
+        <v>0.8</v>
+      </c>
       <c r="O19">
         <v>1</v>
       </c>
@@ -1258,10 +1420,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AD19">
         <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -1275,19 +1440,22 @@
         <v>0.6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="N20">
+        <v>0.8</v>
+      </c>
       <c r="O20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -1308,9 +1476,12 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AD20">
+        <v>0.75</v>
+      </c>
+      <c r="AE20">
         <v>1</v>
       </c>
     </row>
@@ -1327,6 +1498,9 @@
       <c r="D21">
         <v>0.5</v>
       </c>
+      <c r="H21">
+        <v>0.6875</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -1339,14 +1513,17 @@
       <c r="L21">
         <v>0.33333333333333331</v>
       </c>
+      <c r="M21">
+        <v>0.625</v>
+      </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1358,22 +1535,25 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
+      <c r="AB21">
+        <v>0.8125</v>
+      </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -1383,35 +1563,50 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="C22">
+        <v>0.75</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.83333333333333337</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="K22">
         <v>0.83333333333333337</v>
       </c>
+      <c r="M22">
+        <v>0.875</v>
+      </c>
       <c r="O22">
-        <v>1</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="P22">
         <v>0.66666666666666663</v>
       </c>
       <c r="R22">
-        <v>0.75</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
       <c r="AB22">
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.8571428571428571</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -1421,8 +1616,11 @@
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1431,7 +1629,10 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1446,6 +1647,9 @@
         <v>0</v>
       </c>
       <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
@@ -1455,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -1534,19 +1738,25 @@
         <v>1</v>
       </c>
       <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -1569,12 +1779,15 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
+        <v>0.75</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
@@ -1590,10 +1803,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -1611,7 +1824,10 @@
         <v>1</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AE26">
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -1659,20 +1875,35 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
       <c r="H28">
-        <v>0.83333333333333337</v>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="M28">
+        <v>0.92307692307692313</v>
+      </c>
       <c r="O28">
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P28">
         <v>0.6</v>
       </c>
       <c r="R28">
-        <v>0.75</v>
+        <v>0.9</v>
+      </c>
+      <c r="U28">
+        <v>0.8125</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -1681,39 +1912,45 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
+      <c r="M29">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="O29">
-        <v>0.66666666666666663</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="P29">
         <v>0.4</v>
       </c>
       <c r="R29">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V29">
-        <v>0.8571428571428571</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -1724,19 +1961,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -1747,6 +1984,9 @@
       <c r="O30">
         <v>1</v>
       </c>
+      <c r="Q30">
+        <v>0.88888888888888884</v>
+      </c>
       <c r="R30">
         <v>0.66666666666666663</v>
       </c>
@@ -1754,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -1766,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -1785,13 +2025,28 @@
       <c r="E31">
         <v>1</v>
       </c>
+      <c r="F31">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="I31">
-        <v>0.8</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="L31">
+        <v>0.875</v>
+      </c>
+      <c r="M31">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S31">
+        <v>0.6</v>
+      </c>
+      <c r="T31">
         <v>1</v>
       </c>
       <c r="W31">
@@ -1801,7 +2056,10 @@
         <v>0.6</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z31">
+        <v>0.83333333333333337</v>
       </c>
       <c r="AA31">
         <v>0.5714285714285714</v>
